--- a/matlab/logDataProcess/sri-ipb1-48.xlsx
+++ b/matlab/logDataProcess/sri-ipb1-48.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jinwork\BE\matlab\logDataProcess\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="-210" windowWidth="24435" windowHeight="10245"/>
+    <workbookView xWindow="3420" yWindow="-216" windowWidth="24432" windowHeight="10248"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-48" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>reactor</t>
   </si>
@@ -104,12 +109,21 @@
   </si>
   <si>
     <t>070517</t>
+  </si>
+  <si>
+    <t>10us-80ns</t>
+  </si>
+  <si>
+    <t>10us-80ns_day-01.csv</t>
+  </si>
+  <si>
+    <t>070817</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -707,7 +721,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -740,9 +754,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -775,6 +806,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -954,31 +1002,31 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I5" sqref="I5:Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="15" max="15" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1084,7 +1132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1137,7 +1185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1159,35 +1207,115 @@
       <c r="G4" s="2">
         <v>8</v>
       </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O4" s="2">
+        <v>189</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O5" s="2">
+        <v>189</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/sri-ipb1-48.xlsx
+++ b/matlab/logDataProcess/sri-ipb1-48.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jinwork\BE\matlab\logDataProcess\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="-216" windowWidth="24432" windowHeight="10248"/>
+    <workbookView xWindow="3420" yWindow="-210" windowWidth="24435" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-48" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>reactor</t>
   </si>
@@ -118,12 +113,36 @@
   </si>
   <si>
     <t>070817</t>
+  </si>
+  <si>
+    <t>10us-80ns0711_day-01.csv</t>
+  </si>
+  <si>
+    <t>071217</t>
+  </si>
+  <si>
+    <t>600c-300c</t>
+  </si>
+  <si>
+    <t>100ns-300v</t>
+  </si>
+  <si>
+    <t>071317</t>
+  </si>
+  <si>
+    <t>ipb12-91ns-300v-275-325c.csv</t>
+  </si>
+  <si>
+    <t>ipb12-100ns-300v-275-325c.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v712_day-01.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -721,7 +740,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -754,26 +773,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -806,23 +808,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1002,28 +987,28 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:Q5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="2"/>
+    <col min="15" max="15" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1143,7 +1128,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1292,13 +1277,160 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O6" s="2">
+        <v>189</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O7" s="2">
+        <v>189</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O8" s="2">
+        <v>189</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>

--- a/matlab/logDataProcess/sri-ipb1-48.xlsx
+++ b/matlab/logDataProcess/sri-ipb1-48.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>reactor</t>
   </si>
@@ -88,9 +88,6 @@
     <t>ipb12-10000ns-30v-275-325c.csv</t>
   </si>
   <si>
-    <t>10000ns-30v</t>
-  </si>
-  <si>
     <t>91ns-300v-630_day-01.csv</t>
   </si>
   <si>
@@ -137,6 +134,15 @@
   </si>
   <si>
     <t>100ns-300v712_day-01.csv</t>
+  </si>
+  <si>
+    <t>10us-30v-temp_day-01.csv</t>
+  </si>
+  <si>
+    <t>071417</t>
+  </si>
+  <si>
+    <t>10us-30v</t>
   </si>
 </sst>
 </file>
@@ -987,7 +993,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1114,7 +1120,7 @@
         <v>18</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1125,13 +1131,13 @@
         <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
         <v>3</v>
@@ -1167,7 +1173,7 @@
         <v>18</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1178,13 +1184,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>7</v>
@@ -1220,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1231,13 +1237,13 @@
         <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2">
         <v>13</v>
@@ -1273,7 +1279,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1284,10 +1290,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2">
         <v>16</v>
@@ -1323,7 +1329,7 @@
         <v>18</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1334,13 +1340,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2">
         <v>18</v>
@@ -1376,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1387,13 +1393,13 @@
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F8" s="2">
         <v>20</v>
@@ -1429,11 +1435,61 @@
         <v>18</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O9" s="2">
+        <v>189</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
